--- a/Project 03.2025/Statement of Applicability and status of information security controls - ISO27k ISMS 6.1 SoA 2022.xlsx
+++ b/Project 03.2025/Statement of Applicability and status of information security controls - ISO27k ISMS 6.1 SoA 2022.xlsx
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="310">
   <si>
     <t xml:space="preserve">ISO/IEC 27001:2022 ISMS Status, 
 Statement of Applicability (SoA) and
@@ -1522,6 +1522,9 @@
     <t xml:space="preserve">Information security control</t>
   </si>
   <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">A5</t>
   </si>
   <si>
@@ -1618,9 +1621,6 @@
     <t xml:space="preserve">Access control</t>
   </si>
   <si>
-    <t xml:space="preserve">? Unknown</t>
-  </si>
-  <si>
     <t xml:space="preserve">A.5.16</t>
   </si>
   <si>
@@ -1633,13 +1633,13 @@
     <t xml:space="preserve">Authentication information</t>
   </si>
   <si>
+    <t xml:space="preserve">Defined</t>
+  </si>
+  <si>
     <t xml:space="preserve">A.5.18</t>
   </si>
   <si>
     <t xml:space="preserve">Access rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defined</t>
   </si>
   <si>
     <t xml:space="preserve">A.5.19</t>
@@ -1685,12 +1685,18 @@
     <t xml:space="preserve">Assessment and decision on information security events</t>
   </si>
   <si>
+    <t xml:space="preserve">Not applicable</t>
+  </si>
+  <si>
     <t xml:space="preserve">A.5.26</t>
   </si>
   <si>
     <t xml:space="preserve">Response to information security incidents</t>
   </si>
   <si>
+    <t xml:space="preserve">? Unknown</t>
+  </si>
+  <si>
     <t xml:space="preserve">A.5.27</t>
   </si>
   <si>
@@ -1815,9 +1821,6 @@
   </si>
   <si>
     <t xml:space="preserve">Information security event reporting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not applicable</t>
   </si>
   <si>
     <t xml:space="preserve">A7</t>
@@ -2452,8 +2455,9 @@
     <font>
       <b val="true"/>
       <sz val="28"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2692,36 +2696,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2766,47 +2770,47 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="5" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="5" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="5" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="5" borderId="7" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="6" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="6" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="6" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="6" borderId="7" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2821,7 +2825,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2830,23 +2834,23 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="6" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="5" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="5" borderId="7" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2881,19 +2885,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="13" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="13" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2905,43 +2909,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2959,6 +2959,10 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="4" borderId="4" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="5" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2985,19 +2989,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3005,103 +3005,103 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="15" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="15" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="16" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="16" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="4" borderId="16" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="16" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="4" borderId="17" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="4" borderId="17" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="3" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="3" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="18" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="18" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="4" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="4" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="19" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="19" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="7" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="7" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="8" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="8" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="20" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="20" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="10" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="10" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3237,6 +3237,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
@@ -3251,67 +3301,17 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3376,57 +3376,57 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3471,6 +3471,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF336600"/>
         </patternFill>
       </fill>
@@ -3481,67 +3491,57 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3586,32 +3586,42 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -3647,16 +3657,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3701,6 +3701,66 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
@@ -3711,67 +3771,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3812,81 +3812,81 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3927,81 +3927,81 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4042,6 +4042,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
@@ -4066,16 +4076,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
@@ -4096,27 +4096,27 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4157,6 +4157,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4171,67 +4231,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4272,6 +4272,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4282,26 +4312,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4316,6 +4326,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -4327,26 +4347,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4391,27 +4391,57 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="2" tint="-0.5"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4422,36 +4452,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4502,6 +4502,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
@@ -4517,16 +4527,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4621,77 +4621,77 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4736,6 +4736,26 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4752,16 +4772,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4777,16 +4787,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4847,6 +4847,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -4861,67 +4901,27 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4986,6 +4986,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
@@ -5006,6 +5016,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -5017,26 +5037,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5077,6 +5077,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
@@ -5091,36 +5141,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -5132,26 +5152,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5192,6 +5192,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
@@ -5216,57 +5226,47 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5307,6 +5307,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFD9D9D9"/>
       </font>
       <fill>
@@ -5321,67 +5381,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5422,81 +5422,81 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5541,6 +5541,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF336600"/>
         </patternFill>
       </fill>
@@ -5581,7 +5591,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.35"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5602,16 +5612,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5666,6 +5666,46 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.35"/>
         </patternFill>
       </fill>
@@ -5676,57 +5716,17 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF336600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7232,7 +7232,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.139784946236559</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.010752688172043</c:v>
@@ -7244,16 +7244,16 @@
                   <c:v>0.010752688172043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.021505376344086</c:v>
+                  <c:v>0.032258064516129</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.129032258064516</c:v>
+                  <c:v>0.419354838709677</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.139784946236559</c:v>
+                  <c:v>0.344086021505376</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.010752688172043</c:v>
+                  <c:v>0.032258064516129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7321,9 +7321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1466280</xdr:colOff>
+      <xdr:colOff>1465560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7338,8 +7338,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="218520" y="123840"/>
-          <a:ext cx="1399680" cy="1247400"/>
+          <a:off x="218880" y="123840"/>
+          <a:ext cx="1398960" cy="1246680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7365,9 +7365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>333000</xdr:colOff>
+      <xdr:colOff>332280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>632160</xdr:rowOff>
+      <xdr:rowOff>631440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7376,7 +7376,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7349400" y="152280"/>
-        <a:ext cx="5798520" cy="5038560"/>
+        <a:ext cx="5797800" cy="5037840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7395,9 +7395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7406,7 +7406,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7320960" y="5378040"/>
-        <a:ext cx="5798520" cy="6152760"/>
+        <a:ext cx="5797800" cy="6152040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7423,12 +7423,12 @@
 <c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <cdr:relSizeAnchor>
     <cdr:from>
-      <cdr:x>0.105972187732804</cdr:x>
-      <cdr:y>0.0168607558762592</cdr:y>
+      <cdr:x>0.105985347075624</cdr:x>
+      <cdr:y>0.0168631654162201</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.911845045939906</cdr:x>
-      <cdr:y>0.100092877045081</cdr:y>
+      <cdr:x>0.911585744443065</cdr:x>
+      <cdr:y>0.0999642729546267</cdr:y>
     </cdr:to>
     <cdr:sp>
       <cdr:nvSpPr>
@@ -7438,7 +7438,7 @@
       <cdr:spPr>
         <a:xfrm>
           <a:off x="614520" y="84960"/>
-          <a:ext cx="4673160" cy="419400"/>
+          <a:ext cx="4671000" cy="418680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7466,6 +7466,9 @@
           </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="2800" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>ISMS implementation status</a:t>
@@ -7484,12 +7487,12 @@
 <c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <cdr:relSizeAnchor>
     <cdr:from>
-      <cdr:x>0.105972187732804</cdr:x>
-      <cdr:y>0.0169084952024339</cdr:y>
+      <cdr:x>0.105985347075624</cdr:x>
+      <cdr:y>0.0169104739613809</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.911845045939906</cdr:x>
-      <cdr:y>0.100163819330681</cdr:y>
+      <cdr:x>0.911585744443065</cdr:x>
+      <cdr:y>0.100058513750731</cdr:y>
     </cdr:to>
     <cdr:sp>
       <cdr:nvSpPr>
@@ -7499,7 +7502,7 @@
       <cdr:spPr>
         <a:xfrm>
           <a:off x="614520" y="104040"/>
-          <a:ext cx="4673160" cy="512280"/>
+          <a:ext cx="4671000" cy="511560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7527,6 +7530,9 @@
           </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="2800" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Infosec controls status</a:t>
@@ -7723,8 +7729,8 @@
   </sheetPr>
   <dimension ref="B1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7852,12 +7858,12 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="18.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="18.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="1.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="10.25"/>
@@ -9320,7 +9326,7 @@
     </row>
     <row r="74" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="53"/>
-      <c r="B74" s="54"/>
+      <c r="B74" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9606,7 +9612,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{9C59CFA0-A488-4EB7-9A64-BA3E46C564B5}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{60B44450-D569-4E5C-A3B7-9CB4F6D26296}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -9619,7 +9625,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{E0EF8043-8B8A-475A-AD3D-D38014855511}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{8F159DCF-7736-4CA6-9FE0-39CC63493146}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -9632,7 +9638,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{6EF7A064-8E6B-4613-9712-20DD90B173D4}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{64BF2FED-E5B0-40ED-8BD9-442A68BC4739}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -9645,7 +9651,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{C9F296EF-A7B2-42AF-A611-92835C9B8BF0}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{A6D469E4-933D-43A1-A93F-1371B1B4AED7}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -9658,7 +9664,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{43ADF2CA-647C-4E6D-9F46-B01ED5378D8C}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{E2F080DF-F5CC-4C30-A86C-4B6798787140}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -9671,7 +9677,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{C7AEE099-F05D-4AF1-8562-CD25B462B2C8}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{90748E40-79CC-41FC-B785-59BA79C88029}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -9684,7 +9690,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{2C314464-EBF4-47A6-AE23-BD2C98BDFCD4}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{8AE3C02E-4CD9-4C21-A78D-FDD16F8E9A70}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -9697,7 +9703,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{B64E2A10-F23E-4E6C-895D-6386CA2D7B53}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{60B86ACD-A4B7-4CA2-9A16-27E046C18B2B}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -9713,10 +9719,75 @@
           <xm:sqref>D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{7C71D586-7557-4EB0-BC9B-2073C6FBB835}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{8D22EF5F-7895-4A43-AA95-D07BB1382037}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{21D0A9C1-CD9B-4F6F-97AA-DB3B627AA3A0}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{77EE8F2E-1698-4AC1-AEC6-A7C00046212F}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{299B35F7-A3D7-4DB5-85B8-22618BF41638}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{51F11655-E082-4839-8618-75E737C3CC20}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{B0152E9F-84D1-4482-832D-21C1C2B2FC60}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFD9D9D9"/>
               </font>
               <fill>
@@ -9726,8 +9797,21 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{C264ABCB-92DC-4D67-9AD8-264AA5CBC913}">
-            <xm:f>Metrics!$B$3</xm:f>
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{E17E1949-6F13-4D89-A07A-D8B02DC1AD78}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{F335C583-43B4-417A-97D8-426E18107E73}">
+            <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -9735,84 +9819,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{F2829B6A-BF39-4387-B167-392CD2AA7EEF}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{794A7D35-98E9-4E23-8DB3-5729EA542DDF}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{599B60E0-D02C-4C45-BDAF-AEB9EBE0643A}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{E15226B4-5229-487E-81AB-2083A0E02F34}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{BF539B2F-7331-4550-ACEE-FBC335B369A8}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{A082BEE6-E51C-46BB-A084-208B12B0EDA4}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -9820,7 +9826,7 @@
           <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{92C696A7-4145-404B-B6C9-F3546D9FE048}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{88998381-3252-4335-8FC1-9D9A72D0A643}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -9833,7 +9839,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{148219F8-D18A-45CC-A022-76C690F8781C}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{53B6EE55-6AFF-4D9B-871D-6058E483F495}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -9846,7 +9852,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{27C78294-C382-4AD1-AB6B-473F207EC530}">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{64B8A755-4ED9-41E5-B359-21A5F316BCB6}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -9854,72 +9860,72 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{6F5A809F-C2A5-4FF9-A6E8-B1225884D660}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{C1C9BCB5-C18C-4DC4-9920-A022F33AA211}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{7083F121-93DE-4127-91E0-3C43EE71CC3A}">
+            <xm:f>Metrics!$B$10</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{3EA0F023-9995-42E6-A2F9-DE5E9B1DD74D}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{C19BB029-5FDC-4F5B-B537-E487C9AA856E}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{D525E560-34BF-4964-B050-D33779F3E4F2}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{E5A09770-F0BF-4849-91D9-5738E1F41DDA}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{72F972BC-B0AD-45D3-A3F0-968AC996FB39}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{79AFA25A-8331-4F60-9520-6B67A5B36715}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{37C950DE-E08F-4E67-87E7-607210FF2042}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -9927,7 +9933,7 @@
           <xm:sqref>D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{2AB3EEE6-648E-4CEA-887F-831D482DF03F}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{8BF17C39-3428-4FEB-9D74-EEAF5410B048}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -9935,13 +9941,78 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{EBA04F93-51E5-4A90-B197-6C1648301DFD}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FF336600"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{94144832-C6B9-443A-86C1-2ADC6A9E7141}">
-            <xm:f>Metrics!$B$3</xm:f>
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{25D933ED-E87D-4424-9020-91A04951B6C1}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{7177F7CD-7C10-4318-AF5A-FD8810AAD9F1}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{54443D95-9D85-416F-B1DD-4AF414E42952}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{63C749F0-E849-492B-BFFD-6B4D4A871C6B}">
+            <xm:f>Metrics!$B$10</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{F2A8456B-AB3D-46EC-9C40-D7988870C14B}">
+            <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -9953,47 +10024,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{EFEC3CDC-628E-4E98-9627-41B9664FD72E}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{61DAF2D2-9F5B-4447-A1F2-337F4D67702A}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{F24ECCDB-D4BF-4D5A-A5B4-DB40D7D7BDD0}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{16758C25-CEEB-4F1C-9433-63CEE530A330}">
-            <xm:f>Metrics!$B$10</xm:f>
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{D74AD8FD-5F6D-4454-A35A-786FBA384AC9}">
+            <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFD9D9D9"/>
@@ -10001,32 +10033,6 @@
               <fill>
                 <patternFill>
                   <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{1DEDC414-FB6A-43B1-B960-C7654CC18584}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{74D5D976-2F4F-4CAE-B2DF-4BBD00646400}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -10034,7 +10040,7 @@
           <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{CC48BA9D-A1BA-4A79-85F3-A79CA524117E}">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{FB7ADAD4-3A49-4100-B225-396EF88E1D52}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -10042,39 +10048,52 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{97D12563-1119-46CF-B4F5-DC3C2C70712A}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{B2D915E0-E900-41FD-874D-DB7B87FB2F25}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{EBAB904F-D347-46D0-875D-D12A21F3A434}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FFC00000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{AE67E8C8-2D9F-47AF-8670-FA8DED404D76}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{42639BE5-76D3-4DAE-AFE0-215DFCBA6E74}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{6A49F760-00C8-47D8-9DB4-36796D2A5A35}">
-            <xm:f>Metrics!$B$5</xm:f>
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{BEB9C797-FD3E-41B5-B264-B0206F1010F9}">
+            <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10086,8 +10105,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{6CD5D4B7-4A1B-492B-A5C3-77B6CC1B7ACC}">
-            <xm:f>Metrics!$B$6</xm:f>
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{D9E2F5B8-16E6-4855-BD7D-BFA0C7A571FA}">
+            <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10099,8 +10118,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{5A2A9F5E-F1B6-48BB-A4D0-85AE916F3BC6}">
-            <xm:f>Metrics!$B$7</xm:f>
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{C179776B-D2A3-423C-9DE1-4091C6561FA4}">
+            <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10112,8 +10131,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{B3EC76C0-8A46-4B9D-A4B9-F3356FA957AC}">
-            <xm:f>Metrics!$B$8</xm:f>
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{5D8731B4-305A-4CA6-95BD-F5EACDDCE470}">
+            <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10121,19 +10140,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{3DC1CE15-BDB6-4352-AD3B-D1B026587A8C}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -10141,7 +10147,7 @@
           <xm:sqref>D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{38D59170-ACBD-4D4E-B542-A06DFF47C426}">
+          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{846CE19C-483B-4819-B61A-40DAE6F6C168}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -10149,39 +10155,91 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{54252CA5-E660-4A7C-BC9C-964CD0F1CB6F}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{FF9F42DD-D8EE-47E6-8383-63735084F4D2}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{2CF178A6-5C5E-4115-96C4-2CC53C115694}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{967C57DB-2255-45FF-92DA-22FED640BC20}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{69DF8DE2-B0B6-4FE2-A1D1-CF8040535E26}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{D3C66A3A-9987-487E-8680-B200D2CB292B}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FFC00000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{EA917B64-106D-4FF7-97DE-8E186C6D79D6}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{3F1B3E1B-147A-427B-8ACB-B9CA2A28C671}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{2BE5B860-D2E3-41DF-BC56-6A84FA11D2A0}">
-            <xm:f>Metrics!$B$6</xm:f>
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{51261A12-124A-43C3-9DD1-51D2E69D7F85}">
+            <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10189,58 +10247,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{14E06AD6-1019-47CC-AF22-461181F0C2E9}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{E0B236DC-5B20-451B-A2A1-AB33F0D26E60}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{31355999-C6D5-4714-B7B0-7796A43D575E}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{F5836D2C-654F-4468-B983-B73CAEC246A1}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -10248,106 +10254,106 @@
           <xm:sqref>D48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{8D85A342-5920-4C14-8B19-C0E27FD73BCF}">
+          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{85E676CD-E374-4E68-A521-F9304D3A494E}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{1EE0DAA8-B740-4F60-A195-66A39D154830}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{B0AF1B7C-EDB7-4C54-AAF7-251F208649CF}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{DA9DB74B-BC2E-4AB5-81C5-6F215F40D7CC}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{467FD698-D6E5-43C3-A457-47AA8028F53F}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{2D9660CB-7033-4480-9AB2-67C3D3DC8BD8}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{4722D928-32C2-4A3E-A928-844385C02C35}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{1172AF32-BD00-42C0-B4CE-4DE049D4458D}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFFFFFFF"/>
               </font>
               <fill>
                 <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{60338AF1-2DA0-4C73-8236-6ED0E8DA1594}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{5C287E6F-9F4C-4748-82C4-E5ED90BF4949}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{569042FC-A15F-433B-A671-B37C5C2C60FC}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{36536EF8-114D-4E37-BFFE-443984A0FA2E}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{FD49E7DA-5578-4DA0-8244-68D3F0668CDC}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{568C4A61-0032-4344-B736-9E6B5DCA9640}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{6FADDDFB-97FE-42CB-8823-47F4E7371697}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -10355,106 +10361,106 @@
           <xm:sqref>D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{A1D325FF-10AC-4B1B-A66B-F7ADC838C11E}">
+          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{7780F37A-1F97-4AC0-841C-25282D404A2D}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{B6F5C652-DD6E-45C7-9097-7D2837E62074}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{50BC9044-EBEF-4B7B-957D-40298C858AAA}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{CF6B3E5A-3658-4F4D-AF79-A6BA391930A2}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{4066C049-1013-46E0-B426-14EC895844BE}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{B4139CD1-1F57-4D2F-8426-9FF5F0DD4662}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="85" operator="equal" id="{83C0BF64-C526-449D-A931-D366231B30E9}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="86" operator="equal" id="{41F7F17E-B040-439A-8988-51D0DFCA10C4}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFD9D9D9"/>
               </font>
               <fill>
                 <patternFill>
                   <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{30473079-B838-4CB2-AC74-B01390B0F75C}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{AD9CF077-827E-47CC-B8B0-AB129535D447}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{B01E4C13-8995-4B63-A359-FF753E628FA7}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{956BA04E-8C6E-4A83-B932-C1758B2950F0}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{DB615748-8B4C-4A20-A477-9E458BE52729}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="85" operator="equal" id="{D79DF0F8-F2DA-49AF-854A-7FAB93A1D023}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="86" operator="equal" id="{411A22D0-D545-4A28-A42A-635BCEA53F61}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -10462,10 +10468,23 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{DC13D8F7-4E30-4770-B548-3BBC90FD21C6}">
+          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{18279A55-9012-40D7-804B-265919FC9AF7}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="91" operator="equal" id="{1665B19E-DA45-4A1B-A02B-B00054D03518}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFD9D9D9"/>
               </font>
               <fill>
@@ -10475,8 +10494,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="91" operator="equal" id="{408986AE-577C-41AD-81A5-3A4622AEF2F6}">
-            <xm:f>Metrics!$B$4</xm:f>
+          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{29E848A7-57A4-4A3D-9ACD-1F70762DCAE3}">
+            <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10488,20 +10507,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{FAD8127C-82E5-42B0-B379-3D9D87C75CDD}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{40FD76FF-F2E0-4DB8-B0A0-B0F074657EED}">
+          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{A4157A45-953E-4A2A-8CD4-FEA470F1205B}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -10514,7 +10520,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="94" operator="equal" id="{1AC8F771-29AD-4CFB-9F70-E0BC65CCD649}">
+          <x14:cfRule type="cellIs" priority="94" operator="equal" id="{655FBEE0-8A10-4FAD-8CFA-7D317AB9C66E}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -10527,7 +10533,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="95" operator="equal" id="{5137FC71-BAAC-4B31-A5F1-72A96D7F4BBD}">
+          <x14:cfRule type="cellIs" priority="95" operator="equal" id="{26A4A16A-4E36-4AB6-8A14-CCE01EBABBA0}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -10535,33 +10541,33 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="96" operator="equal" id="{F2892096-D847-4C77-8CE1-68A120BCFDD0}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{207F30A5-C8B0-4BF8-A4FD-A8E7D0391060}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="96" operator="equal" id="{6D15DE2D-91CC-4AB6-9BB0-557A865A5770}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{E26F772F-EF97-436C-853A-E02AB870CE93}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -10569,10 +10575,88 @@
           <xm:sqref>D39:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="101" operator="equal" id="{8DF0FBA7-FB5D-4D20-BCBB-6CAE59BD81AA}">
+          <x14:cfRule type="cellIs" priority="101" operator="equal" id="{69AAD82E-F5BA-48A5-BD44-9EE13E606032}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="102" operator="equal" id="{2BC1EDC9-4EDC-4AF7-B3F8-8F3AB3456B8F}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="103" operator="equal" id="{B8EF5877-8365-4ADB-AF9F-9914A943D74A}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{E91CCE57-952B-4B2A-8E35-CFE673DD1DCC}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{F75534ED-F9CE-47AA-ADB6-5B1ED5E420BB}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="106" operator="equal" id="{3BFF971F-2620-463D-96D6-403017F5C3C1}">
+            <xm:f>Metrics!$B$10</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="107" operator="equal" id="{A0DF5520-56EB-4BBE-A56E-BBF317321E20}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFFFFFFF"/>
               </font>
               <fill>
@@ -10582,34 +10666,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="102" operator="equal" id="{20DF8352-A12A-4E76-B2C1-26102FF036F4}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="103" operator="equal" id="{2DCA14A0-C72F-47DD-B092-B594D4582D62}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{465F748C-432E-4132-924F-B65325315030}">
-            <xm:f>Metrics!$B$5</xm:f>
+          <x14:cfRule type="cellIs" priority="108" operator="equal" id="{3C395BA0-52C6-44AF-A229-77F291C6F525}">
+            <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10617,58 +10675,6 @@
               <fill>
                 <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{31619742-D24F-479E-A513-CF8B99E046A6}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="106" operator="equal" id="{B72BB0B0-C9D2-43B7-A5C2-DE25A94E8E9E}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="107" operator="equal" id="{913014EA-00F1-452D-AA64-2889B02496CB}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="108" operator="equal" id="{35F6BEEC-D6DA-453E-BA3B-23F5D996E03E}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -10676,10 +10682,49 @@
           <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="112" operator="equal" id="{78C2E99F-3B64-4458-B9F0-6CD6D74FA03C}">
+          <x14:cfRule type="cellIs" priority="112" operator="equal" id="{A6379C50-717A-49CA-BBEF-B54B766FD0D4}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="113" operator="equal" id="{879EDEC2-A920-49E2-91FD-4DE8B0C39753}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="114" operator="equal" id="{11BDE846-4770-45C3-A574-6B76DBEBA22A}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{304329D4-759D-41FD-AA61-DC64153F2F36}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFFFFFFF"/>
               </font>
               <fill>
@@ -10689,34 +10734,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="113" operator="equal" id="{B52DB963-1A2F-4BC4-81AE-C2C230433B64}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="114" operator="equal" id="{24F14E47-8065-47D2-8FD0-FE2A2EF61137}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{1BF0FA89-DE11-4D1E-AA26-7C1FDE1B5F68}">
-            <xm:f>Metrics!$B$5</xm:f>
+          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{CFCD1EE4-8DB7-4000-903C-93A3DE203D8D}">
+            <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10728,8 +10747,21 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{504CD070-2B72-49CD-BC30-B076D28FFC1E}">
-            <xm:f>Metrics!$B$6</xm:f>
+          <x14:cfRule type="cellIs" priority="117" operator="equal" id="{8C636C23-899E-49E4-A7FF-1AF6E53748DE}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="118" operator="equal" id="{3515467C-9E7D-4E73-9B74-1127615E4CFA}">
+            <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10741,8 +10773,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="117" operator="equal" id="{4EB1692D-6990-47C5-936E-5BAA57C0D978}">
-            <xm:f>Metrics!$B$7</xm:f>
+          <x14:cfRule type="cellIs" priority="119" operator="equal" id="{65F21688-563D-4D40-A2ED-6415BDC3D729}">
+            <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10750,32 +10782,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="118" operator="equal" id="{48CB4B82-4DE4-4513-AAD3-EA45A0905B30}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="119" operator="equal" id="{92DA5614-8712-49C5-B058-5A48DDB75E1E}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -10783,7 +10789,7 @@
           <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="123" operator="equal" id="{3B61FCE5-2570-4CD9-A847-D068CBF0C14A}">
+          <x14:cfRule type="cellIs" priority="123" operator="equal" id="{4743CDAF-F7C0-499D-9E62-3F27BFDC4D2A}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -10791,39 +10797,78 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="124" operator="equal" id="{BD9580AF-5D38-44F1-95B2-E6474E61D825}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="125" operator="equal" id="{13CAF323-F8CA-46A1-9BA7-6C5F78B152DF}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{2089E98F-1EF5-4213-8DC0-18BE4881E2C7}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="127" operator="equal" id="{DA94AF46-DB3E-4CAF-8063-133722BA1EAC}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor theme="2" tint="-0.5"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="124" operator="equal" id="{36A057C0-4816-4234-8058-B0E020B689C0}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="125" operator="equal" id="{F56E9CAF-3A31-4BFA-B1EF-1B21336E41DC}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{1011C440-3238-4B25-85F5-C99D626084E0}">
-            <xm:f>Metrics!$B$9</xm:f>
+          <x14:cfRule type="cellIs" priority="128" operator="equal" id="{AF6BDC99-C03A-47AE-B5C5-ADE4AC106EC8}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="129" operator="equal" id="{1ECA23B0-773E-4F5A-8110-DE37909A3C4A}">
+            <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10835,46 +10880,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="127" operator="equal" id="{8CA6DD20-98BF-4445-9733-D5FEC0131030}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="128" operator="equal" id="{C06BDDD0-857A-45B6-BD70-A1F65FD14D32}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="129" operator="equal" id="{79BA5A45-302C-47F0-AE42-D2F0F7C75952}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="130" operator="equal" id="{CE1FAD1E-F35E-4E14-BB53-5C4BBD67347D}">
+          <x14:cfRule type="cellIs" priority="130" operator="equal" id="{8E6CD23A-9DEC-42D0-A7EA-624369324DC4}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -10890,10 +10896,23 @@
           <xm:sqref>D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="134" operator="equal" id="{BC2B2959-1A53-4184-8DCC-EFE9E47488FF}">
+          <x14:cfRule type="cellIs" priority="134" operator="equal" id="{A127608E-2C4A-4BA6-9A55-462FCD503D20}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="135" operator="equal" id="{D7E9C8FF-7066-49A7-A342-E359782E1DE9}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFD9D9D9"/>
               </font>
               <fill>
@@ -10903,8 +10922,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="135" operator="equal" id="{2F6DA899-53B8-4F69-8457-9E894CA4A432}">
-            <xm:f>Metrics!$B$3</xm:f>
+          <x14:cfRule type="cellIs" priority="136" operator="equal" id="{F12E70B8-F090-4F1A-BB88-98B3917080AA}">
+            <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -10916,20 +10935,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="136" operator="equal" id="{EEE782AE-5DE8-453E-B3F4-C1E0A9A0B37C}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="137" operator="equal" id="{736BF656-3F1D-4CBD-B1D7-7EC32CABE9E1}">
+          <x14:cfRule type="cellIs" priority="137" operator="equal" id="{2B101D2D-A295-4D50-B1CE-4197B63D37E8}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -10942,7 +10948,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="138" operator="equal" id="{C6A125DD-1487-4221-80BB-A3DDE99CF782}">
+          <x14:cfRule type="cellIs" priority="138" operator="equal" id="{389E808C-2680-49ED-99B2-F5798A8B5461}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -10955,7 +10961,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="139" operator="equal" id="{8EB7619E-7BFE-4776-BAA3-6C8D5D829467}">
+          <x14:cfRule type="cellIs" priority="139" operator="equal" id="{DD1B93B0-6EC3-4D87-B8E0-261A426F10E7}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -10968,7 +10974,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="140" operator="equal" id="{3AAD9589-40EA-4F18-A54D-217F472B2049}">
+          <x14:cfRule type="cellIs" priority="140" operator="equal" id="{384A6836-149B-494D-88C3-C0A236B07D55}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -10981,7 +10987,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{B08B65C0-7815-4847-BF24-4B204F55E25F}">
+          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{C128A183-89CF-4EA0-AC84-ECD117F6C9D0}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -10997,7 +11003,7 @@
           <xm:sqref>D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="145" operator="equal" id="{F07E83C5-C0FE-49AF-BB51-10AFEBA032AF}">
+          <x14:cfRule type="cellIs" priority="145" operator="equal" id="{AE914264-D157-4A43-BC38-7394346E6BB2}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -11005,13 +11011,91 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="146" operator="equal" id="{7A6E486C-9046-47C0-8E64-F91BC0EF66A2}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="146" operator="equal" id="{A92B23E5-92BF-4FE6-9F36-7BD91B2C78C6}">
-            <xm:f>Metrics!$B$3</xm:f>
+          <x14:cfRule type="cellIs" priority="147" operator="equal" id="{C03A8099-E631-471A-8093-DFA45EB89C88}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="148" operator="equal" id="{5BEFD0F3-8760-476C-85B9-5E2520686DC3}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="149" operator="equal" id="{7BADEEDD-E665-4744-B8F7-AD443A10A941}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="150" operator="equal" id="{F2647923-E72B-46C3-996C-7A9530622984}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{13263D45-9754-456B-8C93-4E2183761A1A}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="152" operator="equal" id="{8D207CA0-2777-4D8E-B28E-40E03141C9B7}">
+            <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11019,84 +11103,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="147" operator="equal" id="{A9A33CC7-905F-44CF-A764-5A25A4A8F359}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="148" operator="equal" id="{159E4C99-17C1-4238-811F-BDA477BCD4D7}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="149" operator="equal" id="{7C2EC4CE-21D0-4C4E-B6B9-2CF92C84F5A2}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="150" operator="equal" id="{3A18BF41-6095-4561-8865-AB3829A51B85}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{8491F0FD-5AD4-44D0-A3A1-29C4506AA145}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="152" operator="equal" id="{6A5434A2-7CE0-4FCE-9EB9-80567EFC1BDC}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11104,7 +11110,7 @@
           <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="156" operator="equal" id="{1B907CDD-8B25-48ED-A66F-20CD6641D677}">
+          <x14:cfRule type="cellIs" priority="156" operator="equal" id="{75E88A9B-AC80-4B27-A2AB-2D102C9652A0}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -11112,13 +11118,39 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="157" operator="equal" id="{2D6C9B5C-2DC2-4287-884C-BF8C8E36453D}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{4311DF94-7B40-4D70-ADE5-135C1D7FC2EB}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="157" operator="equal" id="{8A3311B6-B013-489D-B5D5-729AB1D49CB0}">
-            <xm:f>Metrics!$B$4</xm:f>
+          <x14:cfRule type="cellIs" priority="159" operator="equal" id="{B2BBF06C-9490-4440-928B-70F9E2DFB9E6}">
+            <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11130,21 +11162,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{107E2113-286E-4826-A1DE-1EB96D7932A4}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="159" operator="equal" id="{5FD0B900-4096-4DD5-87E4-F4A152A67EDB}">
-            <xm:f>Metrics!$B$6</xm:f>
+          <x14:cfRule type="cellIs" priority="160" operator="equal" id="{3212909A-CC66-4528-852B-61FF357E10F8}">
+            <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11156,8 +11175,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="160" operator="equal" id="{D0CA2FA4-5DEC-40D3-BDC9-45A54230B549}">
-            <xm:f>Metrics!$B$7</xm:f>
+          <x14:cfRule type="cellIs" priority="161" operator="equal" id="{8E929EB0-4DC1-4254-BA7B-9C3EA750B09A}">
+            <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11169,20 +11188,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="161" operator="equal" id="{6023F242-E4A3-45A0-B81C-E2ECC65D6C79}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="162" operator="equal" id="{AB6EE9F0-7A36-4A47-A1A4-6DAF101BECEE}">
+          <x14:cfRule type="cellIs" priority="162" operator="equal" id="{1442E172-A681-4B55-90F6-D3222C8A0070}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -11195,7 +11201,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="163" operator="equal" id="{3CC0C3AD-3D16-4A3A-9E2B-C848D910BB12}">
+          <x14:cfRule type="cellIs" priority="163" operator="equal" id="{7E225044-1755-4CAF-BBD9-81F1339E438F}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -11211,10 +11217,62 @@
           <xm:sqref>D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="167" operator="equal" id="{7B5C8F50-C621-445D-B4EB-FAB0433AD3EA}">
+          <x14:cfRule type="cellIs" priority="167" operator="equal" id="{14AF73B0-D5F1-468B-B2F1-AF4DA97BA887}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="168" operator="equal" id="{2078C7A1-20D3-42EF-8E20-A3DBB07315E1}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="169" operator="equal" id="{25EC9EDA-7990-4AD0-9A83-93E8DD38D621}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{A0B1F12D-8D60-4A37-9338-6CADF8DBFC70}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="171" operator="equal" id="{F419BB4A-278E-4AEF-8D88-4054637365F3}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFFFFFFF"/>
               </font>
               <fill>
@@ -11224,8 +11282,34 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="168" operator="equal" id="{3070E370-C668-4D90-B8F8-C04497AED113}">
-            <xm:f>Metrics!$B$3</xm:f>
+          <x14:cfRule type="cellIs" priority="172" operator="equal" id="{BDF327A5-6157-4770-997E-5C2261BDC3D2}">
+            <xm:f>Metrics!$B$10</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="173" operator="equal" id="{FADD8E63-B939-4D29-86AD-D9BC729E4544}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{CCF57070-E5BD-4B92-A595-BAADA5ED6444}">
+            <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11233,84 +11317,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="169" operator="equal" id="{14BA8155-7CDE-458A-908F-703EF010264A}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{5C308A86-C0B5-4795-9DC7-B9858A55C61E}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="171" operator="equal" id="{6886E4D0-5BDF-48C5-BA5C-44808CF4F466}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="172" operator="equal" id="{8FA58DFD-B5EC-4D9D-B0BD-802370B1DFB4}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="173" operator="equal" id="{21125A92-6B6C-4D50-8962-A83EBBAF356A}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{C54E84EB-1F41-4DBE-8BC1-70D2FBB4541B}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11318,7 +11324,7 @@
           <xm:sqref>D22:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="178" operator="equal" id="{DB63BB3B-F717-4F6F-91B1-FA965B7296C4}">
+          <x14:cfRule type="cellIs" priority="178" operator="equal" id="{9622AFFF-E7F0-49BF-8E7C-DDF0B6CADD6D}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -11331,7 +11337,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="179" operator="equal" id="{AFF2FC15-E494-4F43-8A98-5419DE4FDC5C}">
+          <x14:cfRule type="cellIs" priority="179" operator="equal" id="{BD61F538-7CBA-4FC8-A7FF-B3407442AF81}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -11344,7 +11350,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="180" operator="equal" id="{4464C9AD-9B17-4065-B93D-E0B734F8CAAE}">
+          <x14:cfRule type="cellIs" priority="180" operator="equal" id="{EDB16521-3380-4BD5-99D9-20C468CFC675}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -11352,13 +11358,26 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="181" operator="equal" id="{42AF7293-1939-4765-BC60-B71B47503F90}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FFC00000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="181" operator="equal" id="{36AE10B3-B1C4-4B4C-8FC9-F9D0EDE992E4}">
-            <xm:f>Metrics!$B$6</xm:f>
+          <x14:cfRule type="cellIs" priority="182" operator="equal" id="{AF56B937-39B9-4FD5-9C10-5737D8E06278}">
+            <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11370,8 +11389,21 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="182" operator="equal" id="{A6CEE57B-51DA-4028-9379-105BAF40F2EC}">
-            <xm:f>Metrics!$B$7</xm:f>
+          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{5B8578DA-FD90-42DA-9765-203A25AC2BF9}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="184" operator="equal" id="{7B76567B-FCF5-4348-9FCD-31A93862E46B}">
+            <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11383,8 +11415,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{78A64080-D427-4069-8D67-3F3838844DF6}">
-            <xm:f>Metrics!$B$8</xm:f>
+          <x14:cfRule type="cellIs" priority="185" operator="equal" id="{25BB564C-8687-45C9-AB6B-CCB13C21F0A0}">
+            <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11392,32 +11424,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="184" operator="equal" id="{21E42815-4BDD-419C-8CC9-26D1E0FEE3B7}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="185" operator="equal" id="{965C83D5-D06F-4CC0-97BD-C067864CE1EA}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11425,10 +11431,75 @@
           <xm:sqref>D5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="189" operator="equal" id="{FD534E84-1327-43F6-9570-342E30413A12}">
+          <x14:cfRule type="cellIs" priority="189" operator="equal" id="{2E79354D-86A5-468F-9998-EF232E46A199}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="190" operator="equal" id="{62AFC0BF-CD2F-4826-9B45-49347C9028D8}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="191" operator="equal" id="{8413B77B-CC6E-4270-8784-1E70B0171EFE}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="192" operator="equal" id="{DFDCB3F1-5133-4FC6-BCD6-6332BC872030}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="193" operator="equal" id="{204FADAE-8D1E-43D6-966A-C7BC4A978823}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="194" operator="equal" id="{6823F225-1BC9-4F43-A81C-39F1689B4140}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFD9D9D9"/>
               </font>
               <fill>
@@ -11438,47 +11509,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="190" operator="equal" id="{589820B6-197E-4190-8C5E-37F241E8D060}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="191" operator="equal" id="{CD1E8E3B-E01E-4DF8-8F26-2472E7106662}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="192" operator="equal" id="{CAECC1E0-485E-4A92-B3AA-80F16B485A13}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="193" operator="equal" id="{9C522BA0-6922-4C69-AB62-D437D0CE5B48}">
-            <xm:f>Metrics!$B$7</xm:f>
+          <x14:cfRule type="cellIs" priority="195" operator="equal" id="{9286D034-2187-4DF4-9CEA-5822695A4452}">
+            <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11490,8 +11522,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="194" operator="equal" id="{DA61BDC0-6B4C-45E8-9B2D-A43FA3D38F32}">
-            <xm:f>Metrics!$B$8</xm:f>
+          <x14:cfRule type="cellIs" priority="196" operator="equal" id="{CFB6BDF1-6C78-40A6-A559-6BFE70B587A2}">
+            <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11499,32 +11531,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="195" operator="equal" id="{95C5CF86-E69C-4A45-A368-EB12DC6B79DC}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="196" operator="equal" id="{C01C6910-9C35-44D5-AA92-FA4CAACC60B1}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11532,10 +11538,23 @@
           <xm:sqref>D19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="200" operator="equal" id="{3039D7E6-F373-49EC-8A2B-9FF65CF9E540}">
+          <x14:cfRule type="cellIs" priority="200" operator="equal" id="{58516394-5BB7-478B-8000-84D054F0831F}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="201" operator="equal" id="{10442724-9D21-4DD0-8934-8AA547D37B3D}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFD9D9D9"/>
               </font>
               <fill>
@@ -11545,8 +11564,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="201" operator="equal" id="{499B4AF3-9FFF-47A8-BEB9-5921634A70EF}">
-            <xm:f>Metrics!$B$9</xm:f>
+          <x14:cfRule type="cellIs" priority="202" operator="equal" id="{C870C1C1-9687-4A57-9189-13373AEF719B}">
+            <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11558,8 +11577,60 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="202" operator="equal" id="{8645D188-88CB-451B-8F38-EA99CCE93C7A}">
-            <xm:f>Metrics!$B$8</xm:f>
+          <x14:cfRule type="cellIs" priority="203" operator="equal" id="{D12AF130-C0EB-4F76-BAE1-62DE73146570}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="204" operator="equal" id="{3889C568-B64D-4232-83CC-CFB1ABC59D1E}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="205" operator="equal" id="{21F8A39D-6B5F-4DAD-8939-19F423F03112}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="206" operator="equal" id="{D9259E41-EE1C-43EA-A480-7B3BE3BBAF78}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="207" operator="equal" id="{72608B45-FC8C-4EB7-83CC-DEDD80AFF18D}">
+            <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11567,71 +11638,6 @@
               <fill>
                 <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="203" operator="equal" id="{48522E26-BFD6-44DF-A072-F7898DDD4F69}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="204" operator="equal" id="{448539C0-C01E-46FF-84E8-96406A704640}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="205" operator="equal" id="{3FADD23F-E9CF-41E1-8FEC-C6726AC740C4}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="206" operator="equal" id="{53BB2CF0-4A6B-4FD8-98B3-15F69BAF428E}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="207" operator="equal" id="{603FE024-B460-45BA-9CBC-5229FF9E76DC}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11639,10 +11645,88 @@
           <xm:sqref>D17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="211" operator="equal" id="{4C887121-D596-4377-B9B8-CCC0006C1D7A}">
+          <x14:cfRule type="cellIs" priority="211" operator="equal" id="{6753E4C3-1EA7-4C75-B4FD-69FDE3E0D081}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="212" operator="equal" id="{D81B99C6-CABE-46B0-B4FD-34D517D274DE}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="213" operator="equal" id="{233881A7-9C50-4167-AEE3-3CDABB3ED53E}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="214" operator="equal" id="{51D1EDA7-AB93-4983-BDD8-527FCF59FFAF}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="215" operator="equal" id="{B9FC3540-5F5B-4863-922C-4DF4A49F4AAF}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="216" operator="equal" id="{9A8FA967-DE9F-4C3D-A57D-3FCED044E1B2}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="217" operator="equal" id="{8219ED11-95E9-4FC8-9E46-56DB7F35FB38}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFD9D9D9"/>
               </font>
               <fill>
@@ -11652,60 +11736,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="212" operator="equal" id="{3385C65D-BDF2-4DF1-9A4B-769DFDB0DD80}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="213" operator="equal" id="{89347ED1-61EB-43D8-A9E8-9328917E139C}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="214" operator="equal" id="{EE829E9E-77DB-4625-95D0-BC37CDFDE038}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="215" operator="equal" id="{EAAAC3CB-1CB2-4C2B-98E5-F8E1833B6BCE}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="216" operator="equal" id="{20FDB1CC-A63F-4193-A684-2C4BA5DA3467}">
-            <xm:f>Metrics!$B$8</xm:f>
+          <x14:cfRule type="cellIs" priority="218" operator="equal" id="{C7DF76B2-47E1-4598-903E-61744027691B}">
+            <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11713,32 +11745,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="217" operator="equal" id="{C071F62A-3792-4BC3-92B9-1172802AD5D1}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="218" operator="equal" id="{9D4CD086-D0AF-4D71-8C90-CA19678F66B0}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11746,106 +11752,106 @@
           <xm:sqref>D15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="222" operator="equal" id="{77DBF029-A94C-4EB5-9FAB-99E3C9E2D4F0}">
+          <x14:cfRule type="cellIs" priority="222" operator="equal" id="{FA7C5959-F040-42DF-B9D9-52F079F5B066}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="223" operator="equal" id="{208A76EE-4FA8-4EC3-B842-E6F899B22440}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="224" operator="equal" id="{BCECEEAE-2115-4A5D-A187-40387DD3344D}">
+            <xm:f>Metrics!$B$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="225" operator="equal" id="{E11D12F0-98AE-41A6-91E1-D257704855AE}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="226" operator="equal" id="{DAA2F9F2-13D8-4BB8-B0C9-B768F22229DC}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="227" operator="equal" id="{38AB59CF-7D9F-459D-A56F-5CCC8EECB095}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="228" operator="equal" id="{C59273C4-94E6-4276-9CCF-FDF59DAD90B5}">
+            <xm:f>Metrics!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF336600"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="229" operator="equal" id="{B3441645-572F-4892-99C0-77BB2D51726D}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
                 <color rgb="FFFFFFFF"/>
               </font>
               <fill>
                 <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="223" operator="equal" id="{B5CD33B9-1174-428E-B926-55D455CF62D0}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="224" operator="equal" id="{5240D08D-8FF3-4C32-842C-D6D06440E5D9}">
-            <xm:f>Metrics!$B$8</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="225" operator="equal" id="{6780E88E-239D-448E-9DAD-7FBC306B27EF}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="226" operator="equal" id="{7B9FE167-D64B-438F-AA66-00DC9B8561B3}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="227" operator="equal" id="{76E06CC3-FEE8-4443-8D10-3CA430D58DBF}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="228" operator="equal" id="{9E35CC5C-8E48-4CD2-AC8A-941738EBAFA1}">
-            <xm:f>Metrics!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="229" operator="equal" id="{C6EE21F8-9373-43E8-AF23-4027249E3C96}">
-            <xm:f>Metrics!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF336600"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11853,7 +11859,7 @@
           <xm:sqref>D12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="233" operator="equal" id="{E240E1DB-723D-4BAD-A339-A057307EAC49}">
+          <x14:cfRule type="cellIs" priority="233" operator="equal" id="{3BC59455-6F80-4F29-B07B-B778829970FB}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -11861,13 +11867,26 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor theme="0" tint="-0.35"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="234" operator="equal" id="{E08B188B-4C29-494C-975D-3661BACC3A92}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FF336600"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="234" operator="equal" id="{813F97AF-1E24-4581-8D63-BF9DDE415086}">
-            <xm:f>Metrics!$B$4</xm:f>
+          <x14:cfRule type="cellIs" priority="235" operator="equal" id="{E791CFEB-821D-42A2-89D0-70ADB14A401F}">
+            <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11879,8 +11898,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="235" operator="equal" id="{DB9BAEB2-D582-437E-922A-C3F7D1C68263}">
-            <xm:f>Metrics!$B$5</xm:f>
+          <x14:cfRule type="cellIs" priority="236" operator="equal" id="{A4FFD5EC-C39D-42CA-A52B-167465EBD375}">
+            <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11892,8 +11911,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="236" operator="equal" id="{3CEFB967-4243-47E0-A254-BA70F31D6C10}">
-            <xm:f>Metrics!$B$6</xm:f>
+          <x14:cfRule type="cellIs" priority="237" operator="equal" id="{93D65329-7613-45F1-AE7A-B5FD46DE2E52}">
+            <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11905,20 +11924,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="237" operator="equal" id="{AD8B6650-FC3C-4466-864A-1BE9BEFD9998}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.35"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="238" operator="equal" id="{E17D925D-50D8-43A0-92C1-5584A9A86175}">
+          <x14:cfRule type="cellIs" priority="238" operator="equal" id="{693FEF30-E2DE-4438-B089-86E06E40D23C}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -11926,13 +11932,26 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="239" operator="equal" id="{41A9D2B1-A16F-4F16-A322-E4D6AC4E8882}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="239" operator="equal" id="{1856BAD8-6A57-434C-85BF-D872E7DDB581}">
-            <xm:f>Metrics!$B$9</xm:f>
+          <x14:cfRule type="cellIs" priority="240" operator="equal" id="{F1B78653-266D-47FE-8DB5-BD70FB22B75C}">
+            <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFD9D9D9"/>
@@ -11940,19 +11959,6 @@
               <fill>
                 <patternFill>
                   <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="240" operator="equal" id="{C534A557-5FD3-4E10-AC89-5AD79D43F6AA}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -11960,7 +11966,7 @@
           <xm:sqref>D10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="244" operator="equal" id="{55D04278-2C90-49F6-8B48-C0E04185EBA9}">
+          <x14:cfRule type="cellIs" priority="244" operator="equal" id="{23511C88-BD1A-4EFD-A2FB-BAD05B88A93C}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -11973,7 +11979,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="245" operator="equal" id="{600018C9-D640-458E-9AE4-5B697490ACE8}">
+          <x14:cfRule type="cellIs" priority="245" operator="equal" id="{29005B66-7D84-4576-B728-C35A9B1B9255}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -11981,13 +11987,78 @@
               </font>
               <fill>
                 <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="246" operator="equal" id="{8B6C23B7-D773-4886-A135-2D322248DDB0}">
+            <xm:f>Metrics!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFD9D9D9"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="247" operator="equal" id="{B8537C86-9A2B-46C0-A8FD-E46BE3A16585}">
+            <xm:f>Metrics!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="2" tint="-0.5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="248" operator="equal" id="{F46126CC-EE8E-4EFC-8BF0-CA14D1EBA0A4}">
+            <xm:f>Metrics!$B$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="249" operator="equal" id="{2276B9A0-71B7-44D1-8F77-1BFFB91D64D3}">
+            <xm:f>Metrics!$B$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
                   <bgColor theme="0" tint="-0.35"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="246" operator="equal" id="{30A45F2A-CD12-46E7-BA3C-FE9838F9C86F}">
-            <xm:f>Metrics!$B$4</xm:f>
+          <x14:cfRule type="cellIs" priority="250" operator="equal" id="{CE26D061-9EED-4F13-879D-5B94D2FDA91C}">
+            <xm:f>Metrics!$B$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFFFFF"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="251" operator="equal" id="{7ECB91FC-4D5B-4377-B6A3-6DAB4F5088C5}">
+            <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
@@ -11995,71 +12066,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FF336600"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="247" operator="equal" id="{4D29A360-BE46-47FF-A0E9-455E717DC164}">
-            <xm:f>Metrics!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="248" operator="equal" id="{8DB470A4-682C-4620-813A-3885AC4D335D}">
-            <xm:f>Metrics!$B$6</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="249" operator="equal" id="{2BB93D3B-7645-4E4B-8864-30795B5A687C}">
-            <xm:f>Metrics!$B$7</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC00000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="250" operator="equal" id="{8780867F-9047-4B7C-AA64-B72795DD45A6}">
-            <xm:f>Metrics!$B$9</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFD9D9D9"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="251" operator="equal" id="{372DE5E8-2C19-45B6-8F9C-A4E1978690DD}">
-            <xm:f>Metrics!$B$10</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -12080,63 +12086,63 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
-      <selection pane="bottomRight" activeCell="D92" activeCellId="0" sqref="D92"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="55" width="1.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="55" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="56" width="75.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="55" width="75.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="252" min="6" style="58" width="30.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="253" style="59" width="11.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="54" width="1.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="54" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="55" width="75.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="56" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="54" width="75.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="252" min="6" style="57" width="30.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="253" style="58" width="11.58"/>
   </cols>
   <sheetData>
-    <row r="1" s="62" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61" t="s">
+    <row r="1" s="61" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" s="14" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" s="18" customFormat="true" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E2" s="65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" s="66" customFormat="true" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
     </row>
     <row r="4" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>33</v>
@@ -12145,10 +12151,10 @@
     </row>
     <row r="5" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>27</v>
@@ -12157,10 +12163,10 @@
     </row>
     <row r="6" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>27</v>
@@ -12169,10 +12175,10 @@
     </row>
     <row r="7" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>27</v>
@@ -12181,10 +12187,10 @@
     </row>
     <row r="8" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>33</v>
@@ -12193,10 +12199,10 @@
     </row>
     <row r="9" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="69" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>33</v>
@@ -12205,10 +12211,10 @@
     </row>
     <row r="10" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="69" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>27</v>
@@ -12217,10 +12223,10 @@
     </row>
     <row r="11" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>33</v>
@@ -12229,10 +12235,10 @@
     </row>
     <row r="12" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>27</v>
@@ -12241,10 +12247,10 @@
     </row>
     <row r="13" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="69" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>27</v>
@@ -12253,10 +12259,10 @@
     </row>
     <row r="14" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>33</v>
@@ -12265,10 +12271,10 @@
     </row>
     <row r="15" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>33</v>
@@ -12277,10 +12283,10 @@
     </row>
     <row r="16" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>33</v>
@@ -12289,10 +12295,10 @@
     </row>
     <row r="17" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="69" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>27</v>
@@ -12301,13 +12307,13 @@
     </row>
     <row r="18" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E18" s="71"/>
     </row>
@@ -12331,19 +12337,19 @@
         <v>133</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E20" s="71"/>
     </row>
     <row r="21" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>134</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>136</v>
       </c>
       <c r="E21" s="71"/>
     </row>
@@ -12355,7 +12361,7 @@
         <v>138</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E22" s="71"/>
     </row>
@@ -12367,7 +12373,7 @@
         <v>140</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E23" s="71"/>
     </row>
@@ -12379,7 +12385,7 @@
         <v>142</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E24" s="71"/>
     </row>
@@ -12391,7 +12397,7 @@
         <v>144</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E25" s="71"/>
     </row>
@@ -12403,7 +12409,7 @@
         <v>146</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E26" s="71"/>
     </row>
@@ -12415,7 +12421,7 @@
         <v>148</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E27" s="71"/>
     </row>
@@ -12427,937 +12433,937 @@
         <v>150</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E28" s="71"/>
     </row>
     <row r="29" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E29" s="71"/>
     </row>
     <row r="30" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="69" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C30" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>154</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>129</v>
       </c>
       <c r="E30" s="71"/>
     </row>
     <row r="31" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="69" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E31" s="71"/>
     </row>
     <row r="32" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="69" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E32" s="71"/>
     </row>
     <row r="33" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="69" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E33" s="71"/>
     </row>
     <row r="34" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="69" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E34" s="71"/>
     </row>
     <row r="35" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="69" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E35" s="71"/>
     </row>
     <row r="36" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="69" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E36" s="71"/>
     </row>
     <row r="37" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="69" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E37" s="71"/>
     </row>
     <row r="38" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="69" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E38" s="71"/>
     </row>
     <row r="39" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E39" s="71"/>
     </row>
     <row r="40" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="69" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E40" s="71"/>
     </row>
-    <row r="41" s="18" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" s="66" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="67" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D41" s="68"/>
       <c r="E41" s="68"/>
     </row>
-    <row r="42" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="69" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C42" s="70" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E42" s="71"/>
     </row>
-    <row r="43" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E43" s="71"/>
     </row>
-    <row r="44" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C44" s="70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>49</v>
       </c>
       <c r="E44" s="71"/>
     </row>
-    <row r="45" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="69" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E45" s="71"/>
     </row>
-    <row r="46" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C46" s="70" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E46" s="71"/>
     </row>
-    <row r="47" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C47" s="70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>33</v>
       </c>
       <c r="E47" s="71"/>
     </row>
-    <row r="48" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="69" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C48" s="70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E48" s="71"/>
     </row>
-    <row r="49" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="69" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C49" s="70" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="E49" s="71"/>
     </row>
-    <row r="50" s="18" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" s="66" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C50" s="68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
     </row>
-    <row r="51" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C51" s="70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E51" s="71"/>
     </row>
-    <row r="52" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C52" s="70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E52" s="71"/>
     </row>
-    <row r="53" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C53" s="70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E53" s="71"/>
     </row>
-    <row r="54" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C54" s="70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E54" s="71"/>
     </row>
-    <row r="55" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C55" s="70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E55" s="71"/>
     </row>
-    <row r="56" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C56" s="70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E56" s="71"/>
     </row>
-    <row r="57" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="69" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C57" s="70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E57" s="71"/>
     </row>
-    <row r="58" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C58" s="70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E58" s="71"/>
     </row>
-    <row r="59" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C59" s="70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E59" s="71"/>
     </row>
-    <row r="60" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C60" s="70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E60" s="71"/>
     </row>
-    <row r="61" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C61" s="70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E61" s="71"/>
     </row>
-    <row r="62" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C62" s="70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E62" s="71"/>
     </row>
-    <row r="63" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="69" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C63" s="70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E63" s="71"/>
     </row>
-    <row r="64" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C64" s="70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E64" s="71"/>
     </row>
-    <row r="65" s="18" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" s="66" customFormat="true" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C65" s="68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D65" s="68"/>
       <c r="E65" s="68"/>
     </row>
-    <row r="66" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E66" s="71"/>
     </row>
-    <row r="67" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C67" s="70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E67" s="71"/>
     </row>
-    <row r="68" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C68" s="70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E68" s="71"/>
     </row>
-    <row r="69" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="69" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C69" s="70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E69" s="71"/>
     </row>
-    <row r="70" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E70" s="71"/>
     </row>
-    <row r="71" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E71" s="71"/>
     </row>
-    <row r="72" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="69" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C72" s="70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E72" s="71"/>
     </row>
-    <row r="73" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C73" s="70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E73" s="71"/>
     </row>
-    <row r="74" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="69" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E74" s="71"/>
     </row>
-    <row r="75" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C75" s="70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E75" s="71"/>
     </row>
-    <row r="76" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C76" s="70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E76" s="71"/>
     </row>
-    <row r="77" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C77" s="70" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E77" s="71"/>
     </row>
-    <row r="78" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C78" s="70" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E78" s="71"/>
     </row>
-    <row r="79" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C79" s="70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E79" s="71"/>
     </row>
-    <row r="80" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C80" s="70" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E80" s="71"/>
     </row>
-    <row r="81" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="69" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C81" s="70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D81" s="32" t="s">
         <v>33</v>
       </c>
       <c r="E81" s="71"/>
     </row>
-    <row r="82" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C82" s="70" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E82" s="71"/>
     </row>
-    <row r="83" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C83" s="70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E83" s="71"/>
     </row>
-    <row r="84" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="69" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C84" s="70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="71"/>
     </row>
-    <row r="85" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="69" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C85" s="70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D85" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E85" s="71"/>
     </row>
-    <row r="86" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="69" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C86" s="70" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D86" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E86" s="71"/>
     </row>
-    <row r="87" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C87" s="70" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E87" s="71"/>
     </row>
-    <row r="88" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C88" s="70" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D88" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E88" s="71"/>
     </row>
-    <row r="89" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C89" s="70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E89" s="71"/>
     </row>
-    <row r="90" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="69" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C90" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E90" s="71"/>
     </row>
-    <row r="91" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="69" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C91" s="70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E91" s="71"/>
     </row>
-    <row r="92" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C92" s="70" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D92" s="32" t="s">
         <v>33</v>
       </c>
       <c r="E92" s="71"/>
     </row>
-    <row r="93" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="69" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C93" s="70" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D93" s="32" t="s">
         <v>33</v>
       </c>
       <c r="E93" s="71"/>
     </row>
-    <row r="94" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C94" s="70" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E94" s="71"/>
     </row>
-    <row r="95" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="69" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C95" s="70" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E95" s="71"/>
     </row>
-    <row r="96" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="69" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C96" s="70" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E96" s="71"/>
     </row>
-    <row r="97" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C97" s="70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E97" s="71"/>
     </row>
-    <row r="98" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="69" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C98" s="70" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E98" s="71"/>
     </row>
-    <row r="99" s="73" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" s="23" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C99" s="70" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E99" s="71"/>
     </row>
-    <row r="100" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="74"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="76"/>
+    <row r="100" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="75"/>
       <c r="D100" s="43" t="n">
         <f aca="false">COUNTA(D3:D99)</f>
         <v>93</v>
       </c>
-      <c r="E100" s="77" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="101" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="79"/>
-      <c r="B101" s="79"/>
-      <c r="C101" s="80"/>
-      <c r="D101" s="81"/>
-      <c r="E101" s="79"/>
-    </row>
-    <row r="102" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="79"/>
-      <c r="B102" s="79"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="79"/>
-    </row>
-    <row r="103" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="79"/>
-      <c r="B103" s="79"/>
-      <c r="C103" s="80"/>
-      <c r="D103" s="81"/>
-      <c r="E103" s="79"/>
-    </row>
-    <row r="104" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="79"/>
-      <c r="B104" s="79"/>
-      <c r="C104" s="80"/>
-      <c r="D104" s="81"/>
-      <c r="E104" s="79"/>
-    </row>
-    <row r="105" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="79"/>
-      <c r="B105" s="79"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="79"/>
-    </row>
-    <row r="106" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="79"/>
-      <c r="B106" s="79"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="79"/>
-    </row>
-    <row r="107" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="79"/>
-      <c r="B107" s="79"/>
-      <c r="C107" s="80"/>
-      <c r="D107" s="81"/>
-      <c r="E107" s="79"/>
-    </row>
-    <row r="108" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="79"/>
-      <c r="B108" s="79"/>
-      <c r="C108" s="80"/>
-      <c r="D108" s="81"/>
-      <c r="E108" s="79"/>
-    </row>
-    <row r="109" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="79"/>
-      <c r="B109" s="79"/>
-      <c r="C109" s="80"/>
-      <c r="D109" s="81"/>
-      <c r="E109" s="79"/>
-    </row>
-    <row r="110" s="78" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="79"/>
-      <c r="B110" s="79"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="81"/>
-      <c r="E110" s="79"/>
+      <c r="E100" s="76" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="101" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="78"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="78"/>
+    </row>
+    <row r="102" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="78"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="78"/>
+    </row>
+    <row r="103" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="78"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="78"/>
+    </row>
+    <row r="104" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="78"/>
+      <c r="B104" s="78"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="80"/>
+      <c r="E104" s="78"/>
+    </row>
+    <row r="105" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="78"/>
+      <c r="B105" s="78"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="78"/>
+    </row>
+    <row r="106" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="78"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="79"/>
+      <c r="D106" s="80"/>
+      <c r="E106" s="78"/>
+    </row>
+    <row r="107" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="78"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="79"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="78"/>
+    </row>
+    <row r="108" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="78"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="79"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="78"/>
+    </row>
+    <row r="109" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="78"/>
+      <c r="B109" s="78"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="78"/>
+    </row>
+    <row r="110" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="78"/>
+      <c r="B110" s="78"/>
+      <c r="C110" s="79"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13429,7 +13435,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{2B12EF5D-89F1-47DD-8E1C-75EEBC29F8D4}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{6B75DF45-98A8-459A-AA91-7D1B84EAB3E4}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -13442,7 +13448,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{F9B7795C-BDE8-48F6-9B82-20C0117D47A4}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{52665769-5A60-4D9C-BA5E-B0B8DB26F3B5}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -13455,7 +13461,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{76CC30CD-2AE6-4EA5-9AA0-F0F4BCBF7CB9}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{4461D5AF-B824-452E-ADFD-64E087FDB91D}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -13468,7 +13474,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{21296E28-96B7-4E38-BEA4-86A79857D7B9}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{B68FC184-73B3-45BF-A5BB-2A7A6FA6809D}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -13481,7 +13487,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{BE6B1954-74B7-4015-894C-2EEC6E256DAA}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{B5C0EE86-7D8A-4196-A0C0-4711EDE810D0}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -13494,7 +13500,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{502288E4-5454-488F-B39D-449D15DA4769}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{70FE1899-E189-4E25-B3BC-9B7112386970}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -13507,7 +13513,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{CBCDFC4F-6020-4BFC-8DAD-6B5157AE74E0}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{7C5610C7-CFA7-4096-8D60-D029C36355BD}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -13520,7 +13526,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{87CD4DF0-894F-47EC-A2C3-ED593019F599}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{1BAE3EE7-508D-4AE7-85B7-3862B2175D57}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -13536,7 +13542,7 @@
           <xm:sqref>D66:D99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{326DEE31-1973-4A8F-ADD1-C3CEEAFCD476}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{B1541280-3399-4C6E-8AC3-738263C12544}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -13549,7 +13555,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{5BE05536-FDB2-4E6F-A6A2-6D79B08EF767}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{E78F9C2C-46AA-49B9-BDC9-00507C508070}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -13562,7 +13568,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{9F2A2E33-48A2-4BD0-B2F4-A5598FE2D085}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{EF819B5E-2A92-4F70-9529-E12B1414392D}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -13575,7 +13581,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{A1F18090-97C6-4235-A46C-2695CA3A1866}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{66D92A60-B4D3-4DA9-B0A8-C3614E727EFC}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -13588,7 +13594,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{CE72E881-C9AF-4E91-9A10-18756A8EE536}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{EEE048F1-6F99-4F97-AD7A-8DB33E52C0F9}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -13601,7 +13607,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{C4851C12-C73A-4984-B54F-CCAD53B610EF}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{F87D15EE-B588-4EC5-AAF7-90629472BBC0}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -13614,7 +13620,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{63F8D0A8-CFC7-45FF-87C0-2E77995EFD87}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{E545A335-BA97-46D3-8791-27C2327AF0D0}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -13627,7 +13633,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{DA943684-A8FE-49C4-9836-D0C12BDF856D}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{FAD8CEA1-8D39-4A57-84C5-B6F76A4B558D}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -13643,7 +13649,7 @@
           <xm:sqref>D51:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{78D0BD57-BFE1-4383-8C91-94F3297BC350}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{B122215B-DFA8-4FF0-A15A-378FB5A67222}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -13656,7 +13662,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{309B7548-E550-428C-8D45-92B084592066}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{6C3FA2D8-1418-4985-90E0-3DA8AAC75BEB}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -13669,7 +13675,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{593912F7-E0EB-4BC5-A067-258D38868774}">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{151D5010-6085-4071-B8E9-B9735B6F3F20}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -13682,7 +13688,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{3F10C7AD-1C49-42DA-B1F0-44789F3B6056}">
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{65585891-419A-40F3-93F5-DDE0D6A72123}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -13695,7 +13701,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{1D7256EF-8830-4592-8E80-F6C140287854}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{48B55AB9-A08D-4C8A-81D3-5D9C8A1CD6A7}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -13708,7 +13714,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{B85941C0-2580-48C7-9F3F-6248627C9C35}">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{9BA355E2-41A5-4C92-81D4-876BE1B0BE71}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -13721,7 +13727,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{7CA2C3D8-90AC-4D82-B6C3-D0C0325CFEF7}">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{2ACA8376-ECEE-4DE5-A58D-D09A70AAE6BC}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -13734,7 +13740,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{C94ACE51-D896-4621-9AB0-BA1FE0A0BBA3}">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{4363ADB7-7E86-467F-87C4-F12033EC3773}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -13750,7 +13756,7 @@
           <xm:sqref>D4:D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{F0708AE2-F36B-4D1B-8364-D953C26987EB}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{296A5B66-3B52-4472-A58D-16AC424EEE20}">
             <xm:f>Metrics!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -13763,7 +13769,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{80808B6A-C5A9-4898-A841-B562FD4C45BA}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{324C98D5-27DD-436E-A73C-CBC7DA3557E0}">
             <xm:f>Metrics!$B$9</xm:f>
             <x14:dxf>
               <font>
@@ -13776,7 +13782,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{E93B325B-A852-4998-A0BE-71732E709A40}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{4CD8CE2A-251E-4967-B51A-26A038B87D00}">
             <xm:f>Metrics!$B$8</xm:f>
             <x14:dxf>
               <font>
@@ -13789,7 +13795,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{B52F50E2-2040-4EF4-806D-7EFCD21FD28B}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{CC45B0E2-5DCF-4696-A43B-F687F41FB9A1}">
             <xm:f>Metrics!$B$7</xm:f>
             <x14:dxf>
               <font>
@@ -13802,7 +13808,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{2320C33C-C500-482D-AC34-25B18EBF81F0}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{C613F4C9-D3CA-4875-97D6-A536DD1D5849}">
             <xm:f>Metrics!$B$6</xm:f>
             <x14:dxf>
               <font>
@@ -13815,7 +13821,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{B830BB74-9334-48A2-B710-6D4771A4E5A1}">
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{99FF85AB-6362-4C63-A4CC-F07FB6B53A6E}">
             <xm:f>Metrics!$B$5</xm:f>
             <x14:dxf>
               <font>
@@ -13828,7 +13834,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{20B6849E-5EA5-4294-87E9-DAF6EA985E4A}">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{C7B585F2-1EA8-4D88-BB10-C3F074C650AF}">
             <xm:f>Metrics!$B$4</xm:f>
             <x14:dxf>
               <font>
@@ -13841,7 +13847,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{626458D5-46D6-452C-BD83-AD9C7C494F61}">
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{6BA95361-5F80-4EC2-A296-F170C8C16111}">
             <xm:f>Metrics!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -13869,8 +13875,8 @@
   </sheetPr>
   <dimension ref="B2:E319"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13883,475 +13889,475 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="53" width="9.17"/>
   </cols>
   <sheetData>
-    <row r="2" s="82" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="83" t="s">
+    <row r="2" s="81" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="84" t="s">
-        <v>297</v>
-      </c>
-      <c r="D2" s="85" t="s">
+      <c r="C2" s="83" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="D2" s="84" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="3" s="87" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="89" t="s">
+      <c r="E2" s="85" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="90" t="n">
+    </row>
+    <row r="3" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="89" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B3)/'Mandatory ISMS requirements'!$D$61</f>
         <v>0</v>
       </c>
-      <c r="E3" s="91" t="n">
+      <c r="E3" s="90" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B3)/ControlTotal</f>
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="4" s="87" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="94" t="n">
+        <v>0.139784946236559</v>
+      </c>
+    </row>
+    <row r="4" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B4)/'Mandatory ISMS requirements'!$D$61</f>
         <v>0</v>
       </c>
-      <c r="E4" s="95" t="n">
+      <c r="E4" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B4)/ControlTotal</f>
         <v>0.010752688172043</v>
       </c>
     </row>
-    <row r="5" s="87" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="92" t="s">
+    <row r="5" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="93" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" s="94" t="n">
+      <c r="C5" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B5)/'Mandatory ISMS requirements'!$D$61</f>
         <v>0.464285714285714</v>
       </c>
-      <c r="E5" s="95" t="n">
+      <c r="E5" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B5)/ControlTotal</f>
         <v>0.010752688172043</v>
       </c>
     </row>
-    <row r="6" s="87" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="94" t="n">
+    <row r="6" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B6)/'Mandatory ISMS requirements'!$D$61</f>
         <v>0</v>
       </c>
-      <c r="E6" s="95" t="n">
+      <c r="E6" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B6)/ControlTotal</f>
         <v>0.010752688172043</v>
       </c>
     </row>
-    <row r="7" s="87" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>304</v>
-      </c>
-      <c r="D7" s="94" t="n">
+    <row r="7" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B7)/'Mandatory ISMS requirements'!$D$61</f>
         <v>0</v>
       </c>
-      <c r="E7" s="95" t="n">
+      <c r="E7" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B7)/ControlTotal</f>
-        <v>0.021505376344086</v>
-      </c>
-    </row>
-    <row r="8" s="87" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="92" t="s">
+        <v>0.032258064516129</v>
+      </c>
+    </row>
+    <row r="8" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="93" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="94" t="n">
+      <c r="C8" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B8)/'Mandatory ISMS requirements'!$D$61</f>
         <v>0.357142857142857</v>
       </c>
-      <c r="E8" s="95" t="n">
+      <c r="E8" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B8)/ControlTotal</f>
-        <v>0.129032258064516</v>
-      </c>
-    </row>
-    <row r="9" s="87" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="92" t="s">
+        <v>0.419354838709677</v>
+      </c>
+    </row>
+    <row r="9" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="93" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="94" t="n">
+      <c r="C9" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="93" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B9)/'Mandatory ISMS requirements'!$D$61</f>
         <v>0.178571428571429</v>
       </c>
-      <c r="E9" s="95" t="n">
+      <c r="E9" s="94" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B9)/ControlTotal</f>
-        <v>0.139784946236559</v>
-      </c>
-    </row>
-    <row r="10" s="87" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="96" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" s="98" t="n">
+        <v>0.344086021505376</v>
+      </c>
+    </row>
+    <row r="10" s="86" customFormat="true" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="97" t="n">
         <f aca="false">COUNTIF('Mandatory ISMS requirements'!$D$3:$D$60,$B10)/'Mandatory ISMS requirements'!$D$61</f>
         <v>0</v>
       </c>
-      <c r="E10" s="99" t="n">
+      <c r="E10" s="98" t="n">
         <f aca="false">COUNTIF('Annex A controls'!$D$3:$D$99,$B10)/ControlTotal</f>
-        <v>0.010752688172043</v>
-      </c>
-    </row>
-    <row r="11" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="100" t="s">
-        <v>308</v>
-      </c>
-      <c r="D11" s="101" t="n">
+        <v>0.032258064516129</v>
+      </c>
+    </row>
+    <row r="11" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="99" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="100" t="n">
         <f aca="false">SUM(D3:D10)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="101" t="n">
+      <c r="E11" s="100" t="n">
         <f aca="false">SUM(E3:E10)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="87" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="102"/>
-    </row>
-    <row r="15" s="87" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="102"/>
-    </row>
-    <row r="16" s="87" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="102"/>
-    </row>
-    <row r="17" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="86" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="101"/>
+    </row>
+    <row r="15" s="86" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="101"/>
+    </row>
+    <row r="16" s="86" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="101"/>
+    </row>
+    <row r="17" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="220" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="238" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="268" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="269" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="270" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="271" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="272" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="273" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="274" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="275" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="276" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="278" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="279" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="280" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="281" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="282" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="283" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="284" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="285" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="286" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="287" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="288" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="290" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="291" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="292" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="293" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="294" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="295" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="296" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="297" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="298" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="299" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="300" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="301" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="302" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="303" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="304" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="305" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="306" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="307" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="308" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="310" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="311" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="312" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="313" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="314" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="315" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="316" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="317" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="318" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="319" s="86" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B10">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
